--- a/biology/Botanique/Liste_des_espèces_du_genre_Astragalus/Liste_des_espèces_du_genre_Astragalus.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Astragalus/Liste_des_espèces_du_genre_Astragalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Astragalus</t>
+          <t>Liste_des_espèces_du_genre_Astragalus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La liste des espèces du genre Astragalus (famille des Fabaceae) compte 2455 espèces acceptées, ce qui en fait le genre le plus important chez les plantes à fleurs, devant Bulbophyllum (Orchidaceae) avec environ 2000 espèces et Psychotria (Rubiaceae), avec environ 1950 espèces[1], et parmi les Fabaceae, devant Acacia (sensu lato), avec 1540 espèces[2]. 
-Selon la base de données The Plant List, 6603 espèces d’Astragalus ont été décrites, dont 2455 (37,2 %) sont acceptées, 2599 (39,4 %) classées comme synonymes et 1549 (23,5 %) non évaluées[3]. 	
+La liste des espèces du genre Astragalus (famille des Fabaceae) compte 2455 espèces acceptées, ce qui en fait le genre le plus important chez les plantes à fleurs, devant Bulbophyllum (Orchidaceae) avec environ 2000 espèces et Psychotria (Rubiaceae), avec environ 1950 espèces, et parmi les Fabaceae, devant Acacia (sensu lato), avec 1540 espèces. 
+Selon la base de données The Plant List, 6603 espèces d’Astragalus ont été décrites, dont 2455 (37,2 %) sont acceptées, 2599 (39,4 %) classées comme synonymes et 1549 (23,5 %) non évaluées. 	
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Astragalus</t>
+          <t>Liste_des_espèces_du_genre_Astragalus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
-          <t>Selon The Plant List            (8 septembre 2018)[4] :
+          <t>Selon The Plant List            (8 septembre 2018) :
 Astragalus aaronii (Eig) Zohary
 Astragalus abbreviatus Kar. &amp; Kir.
 Astragalus abnormalis Rech.f.
@@ -1543,7 +1557,7 @@
 Astragalus insignis Gontsch.
 Astragalus insularis Kellogg
 Astragalus intarrensis Franch.
-Astragalus i</t>
+Astragalus inte</t>
         </is>
       </c>
     </row>
